--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360BAD91-E5DC-4E97-B8F6-57B04A9158A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD75EFD-3414-4258-9EFA-1F95D95C160F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>Id</t>
   </si>
@@ -59,12 +59,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
-  </si>
-  <si>
     <t>USB_Type_C</t>
   </si>
   <si>
@@ -143,15 +137,15 @@
     <t>Link</t>
   </si>
   <si>
+    <t>10uF</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
     <t>Reserve</t>
   </si>
   <si>
-    <t>CP_EIA-3216-18_Kemet-A_Pad1.58x1.35mm_HandSolder</t>
-  </si>
-  <si>
     <t>100R</t>
   </si>
   <si>
@@ -167,54 +161,12 @@
     <t>J10</t>
   </si>
   <si>
-    <t>10uF.shrp</t>
-  </si>
-  <si>
-    <t>C19,C20</t>
-  </si>
-  <si>
-    <t>100nF.en</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>100nF.boot</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>10uF.mcu</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>100nF.mcu</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>J9,J2,J11,J7,J5,J8</t>
-  </si>
-  <si>
     <t>Conn_01x06_Socket</t>
   </si>
   <si>
-    <t>JST_SH_SM06B-SRSS-TB_1x06-1MP_P1.00mm_Horizontal</t>
-  </si>
-  <si>
     <t>J14,J15</t>
   </si>
   <si>
-    <t>10uF.hb</t>
-  </si>
-  <si>
-    <t>C17,C18</t>
-  </si>
-  <si>
     <t>1.5uH</t>
   </si>
   <si>
@@ -236,9 +188,6 @@
     <t>L2</t>
   </si>
   <si>
-    <t>C23,C12,C14</t>
-  </si>
-  <si>
     <t>TPS565242DRLR</t>
   </si>
   <si>
@@ -248,18 +197,6 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>100nF.vout</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>10uF.pvin</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>IC3,IC2</t>
   </si>
   <si>
@@ -278,9 +215,6 @@
     <t>22uF</t>
   </si>
   <si>
-    <t>CP_EIA-2012-12_Kemet-R_Pad1.30x1.05mm_HandSolder</t>
-  </si>
-  <si>
     <t>PMOS</t>
   </si>
   <si>
@@ -299,27 +233,9 @@
     <t>C11,C13</t>
   </si>
   <si>
-    <t>100nF.hb</t>
-  </si>
-  <si>
-    <t>C16,C15</t>
-  </si>
-  <si>
-    <t>100nF.avin</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
     <t>D2,D1,D7</t>
   </si>
   <si>
-    <t>100nF.vin</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>45k</t>
   </si>
   <si>
@@ -335,18 +251,12 @@
     <t>SW_SPST_EVQPE1</t>
   </si>
   <si>
-    <t>SW4,SW5,SW3,SW2</t>
-  </si>
-  <si>
     <t>J3,J4,J6</t>
   </si>
   <si>
     <t>TPS62133</t>
   </si>
   <si>
-    <t>VQFN-16-1EP_3x3mm_P0.5mm_EP1.68x1.68mm_ThermalVias</t>
-  </si>
-  <si>
     <t>R13</t>
   </si>
   <si>
@@ -363,6 +273,33 @@
   </si>
   <si>
     <t>C1,C5,C6,C8,C10</t>
+  </si>
+  <si>
+    <t>C3,C7,C9,C12,C14,C15,C16,C22,C23,C24,C25</t>
+  </si>
+  <si>
+    <t>C4,C17,C18,C19,C20,C21</t>
+  </si>
+  <si>
+    <t>J2,J5,J7,J8,J9,J11</t>
+  </si>
+  <si>
+    <t>SW2,SW3,SW4,SW5</t>
+  </si>
+  <si>
+    <t>JST_SH_SM06B-SRSS-TB_1x06-1MP_P1.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>R 0805_2012Metric_HandSolder</t>
+  </si>
+  <si>
+    <t>C 0805_2012Metric_HandSolder</t>
+  </si>
+  <si>
+    <t>CP 1206_3216Metric Kemet-A_HandSolder</t>
+  </si>
+  <si>
+    <t>VQFN-16_ThermalVias</t>
   </si>
 </sst>
 </file>
@@ -1362,14 +1299,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="56.36328125" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" customWidth="1"/>
+    <col min="3" max="3" width="50.6328125" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
     <col min="6" max="6" width="35.6328125" customWidth="1"/>
@@ -1393,13 +1330,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -1410,16 +1347,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1431,16 +1368,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1451,16 +1388,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1471,16 +1408,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="13"/>
@@ -1491,16 +1428,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="13"/>
@@ -1511,16 +1448,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="13"/>
@@ -1531,16 +1468,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1551,6 +1488,18 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1559,6 +1508,18 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1566,6 +1527,18 @@
     <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="12"/>
@@ -1577,6 +1550,18 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -1585,6 +1570,18 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1593,6 +1590,18 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -1601,6 +1610,18 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1609,6 +1630,18 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -1617,6 +1650,18 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1625,6 +1670,18 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1633,10 +1690,18 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1646,16 +1711,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="11"/>
@@ -1665,6 +1730,18 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -1673,6 +1750,18 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1681,6 +1770,18 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1689,6 +1790,18 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1697,130 +1810,66 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1830,386 +1879,152 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="1">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
@@ -2217,62 +2032,6 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="1">
-        <v>6</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F72" s="1"/>
     </row>
@@ -2290,35 +2049,35 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
@@ -2332,58 +2091,58 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D87" s="1">
         <v>4</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD75EFD-3414-4258-9EFA-1F95D95C160F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1738F1F-6064-4447-8FC4-4B5678248F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>Id</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>VQFN-16_ThermalVias</t>
+  </si>
+  <si>
+    <t>USB C mouser</t>
+  </si>
+  <si>
+    <t>Molex PicoBlade, 6 Pin, vertical, mouser</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,13 +918,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1420,8 +1423,8 @@
         <v>28</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -1440,8 +1443,8 @@
         <v>40</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -1460,8 +1463,8 @@
         <v>37</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -1782,7 +1785,9 @@
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -1791,18 +1796,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>30</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -1811,69 +1815,165 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2047,104 +2147,6 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B81" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="1">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="1">
-        <v>2</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B87" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="1">
-        <v>4</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B88" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D88" s="1">
-        <v>3</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B95" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" s="1">
-        <v>1</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B96" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="1">
-        <v>1</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\-PCB-\SUMEC_MK_IV\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1738F1F-6064-4447-8FC4-4B5678248F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632EB6C2-AFD9-4F08-83E3-1CB6CD9D82EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -104,9 +104,6 @@
     <t>ESP32-S3-WROOM-1</t>
   </si>
   <si>
-    <t>TSOP</t>
-  </si>
-  <si>
     <t>TSOP382xx</t>
   </si>
   <si>
@@ -306,6 +303,99 @@
   </si>
   <si>
     <t>Molex PicoBlade, 6 Pin, vertical, mouser</t>
+  </si>
+  <si>
+    <t>Push button</t>
+  </si>
+  <si>
+    <t>TSOP382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-Diode, 2A, 1206, mouser </t>
+  </si>
+  <si>
+    <t>Molex PicoBlade, 4 Pin, vertical, mouser</t>
+  </si>
+  <si>
+    <t>Molex PicoBlade, 3 Pin, vertical, mouser</t>
+  </si>
+  <si>
+    <t>2.2uH 1616</t>
+  </si>
+  <si>
+    <t>1.5uH 1212</t>
+  </si>
+  <si>
+    <t>22uF, 10V, 0805, tantalum</t>
+  </si>
+  <si>
+    <t>PMOS, Vds=12V, Vgs(th)=8V, GSD, SOT-23-3</t>
+  </si>
+  <si>
+    <t>TPS565242DRLR, 3V3 OUTPUT</t>
+  </si>
+  <si>
+    <t>100nF, 16V, 0805, ceramic, X7R</t>
+  </si>
+  <si>
+    <t>22nF, 50V, 0805, ceramic, X7R</t>
+  </si>
+  <si>
+    <t>TPS62133 5V OUTPUT</t>
+  </si>
+  <si>
+    <t>ESD PROT</t>
+  </si>
+  <si>
+    <t>SW SPDT</t>
+  </si>
+  <si>
+    <t>10uF, 16V, 1206, tantal</t>
+  </si>
+  <si>
+    <t>JST-SH, 6PIN, TME</t>
+  </si>
+  <si>
+    <t>XT30PW-M, TME</t>
+  </si>
+  <si>
+    <t>15R, 100mW, 0805 panasonic</t>
+  </si>
+  <si>
+    <t>100R, 250mW, 0805, vishay</t>
+  </si>
+  <si>
+    <t>0R. 250mW, 0805, vishay</t>
+  </si>
+  <si>
+    <t>100k, 250mW, 0805, vishay</t>
+  </si>
+  <si>
+    <t>10k, 250mW, 0805, vishay</t>
+  </si>
+  <si>
+    <t>RLED</t>
+  </si>
+  <si>
+    <t>YLED</t>
+  </si>
+  <si>
+    <t>GLED</t>
+  </si>
+  <si>
+    <t>560R, 500mW, 0805, bourns</t>
+  </si>
+  <si>
+    <t>3.3nF, 16V, 0805, X7R</t>
+  </si>
+  <si>
+    <t>Green LED, 20mA, 1.9V, 0805</t>
+  </si>
+  <si>
+    <t>Yellow LED, 20mA, 1.9V, 0805</t>
+  </si>
+  <si>
+    <t>Red LED, 20mA 1.9V, 0805</t>
   </si>
 </sst>
 </file>
@@ -489,7 +579,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +798,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +990,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,6 +1025,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1302,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,7 +1426,7 @@
     <col min="3" max="3" width="50.6328125" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
-    <col min="6" max="6" width="35.6328125" customWidth="1"/>
+    <col min="6" max="6" width="37.08984375" customWidth="1"/>
     <col min="7" max="7" width="23.90625" customWidth="1"/>
     <col min="8" max="8" width="7.26953125" customWidth="1"/>
     <col min="9" max="9" width="34.54296875" customWidth="1"/>
@@ -1333,13 +1447,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -1350,18 +1464,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8"/>
@@ -1371,18 +1487,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="F3" s="15"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1391,18 +1507,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -1411,18 +1529,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -1431,18 +1551,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -1451,18 +1573,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -1471,10 +1595,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1482,7 +1606,9 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="8"/>
@@ -1492,18 +1618,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
@@ -1512,10 +1640,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1">
         <v>11</v>
@@ -1523,7 +1651,9 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
@@ -1532,18 +1662,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
@@ -1554,18 +1686,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
@@ -1574,18 +1708,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
@@ -1597,15 +1733,17 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
@@ -1617,15 +1755,17 @@
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
@@ -1665,7 +1805,9 @@
       <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
@@ -1674,18 +1816,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
@@ -1694,18 +1838,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
@@ -1714,10 +1860,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -1725,7 +1871,9 @@
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
@@ -1734,19 +1882,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1754,19 +1903,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1774,7 +1924,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
@@ -1786,9 +1936,9 @@
         <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1796,16 +1946,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1815,7 +1968,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1827,7 +1980,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1837,18 +1990,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
@@ -1857,19 +2012,21 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="14"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1877,7 +2034,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1888,7 +2045,9 @@
       <c r="E28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
@@ -1897,7 +2056,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -1917,10 +2076,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -1928,8 +2087,10 @@
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1937,18 +2098,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
@@ -1957,18 +2120,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -1986,19 +2151,43 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -2149,7 +2338,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{6D17D59D-B00C-49B9-9F71-5CB881159606}"/>
+    <hyperlink ref="F15" r:id="rId2" xr:uid="{EF958A18-93E8-4119-9A8D-0291CBEA1C5F}"/>
+    <hyperlink ref="F30" r:id="rId3" xr:uid="{53F6B493-A6EA-4D50-9EC0-2A231FA87A52}"/>
+    <hyperlink ref="F32" r:id="rId4" xr:uid="{0C154578-CACA-4BBA-95A2-6BC7B349F734}"/>
+    <hyperlink ref="F31" r:id="rId5" xr:uid="{CEC642B8-821A-4FB3-819F-7AE36F50F009}"/>
+    <hyperlink ref="F9" r:id="rId6" display="22uF, 0805 " xr:uid="{F83FEE82-BDC4-4749-A0AD-7C138931EBAE}"/>
+    <hyperlink ref="F18" r:id="rId7" xr:uid="{46EB7F69-41B0-4BD1-B990-020850FB8150}"/>
+    <hyperlink ref="F28" r:id="rId8" display="DRV8874.  mouser" xr:uid="{6B760059-D220-4D00-B53A-4A7BF2A0B1FE}"/>
+    <hyperlink ref="F27" r:id="rId9" xr:uid="{BF4FF71A-DBA0-49C4-B4C5-8E838503C33D}"/>
+    <hyperlink ref="F10" r:id="rId10" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{F920BB65-66A9-4D8E-972F-F16A601CD902}"/>
+    <hyperlink ref="F12" r:id="rId11" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{086F398F-F957-4413-9B1E-846AA6EDFE88}"/>
+    <hyperlink ref="F14" r:id="rId12" display="TPS62133 5V" xr:uid="{DFEBCF9B-890F-47F5-B667-6E08AD68E59E}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{A4DFFD86-BFDF-4E81-8991-0B1D0DDCAB99}"/>
+    <hyperlink ref="F13" r:id="rId14" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{95DAAF32-0A4F-4478-8001-1D7F97329858}"/>
+    <hyperlink ref="F26" r:id="rId15" xr:uid="{6600A17B-EAC3-45E3-A2CB-5F3376BCA2AF}"/>
+    <hyperlink ref="F21" r:id="rId16" xr:uid="{B14FB3A0-2AF7-4BF3-8981-B6124A39B6EC}"/>
+    <hyperlink ref="F2" r:id="rId17" display="10k mouser" xr:uid="{0648B27D-D74F-41C7-A972-856D1F021628}"/>
+    <hyperlink ref="F5" r:id="rId18" display="0R. 250mW, 0805" xr:uid="{E873131F-2EDC-41CC-BD31-48C256E42603}"/>
+    <hyperlink ref="F4" r:id="rId19" display="100k, 250mW, 0805" xr:uid="{3F110D6B-CD50-410E-8133-83F76B773E64}"/>
+    <hyperlink ref="F7" r:id="rId20" display="100R, 250mW, 0805" xr:uid="{96C04619-73AD-4532-8564-AAB3DC023DDA}"/>
+    <hyperlink ref="F8" r:id="rId21" display="15R mouser" xr:uid="{5F0952B8-402D-4D87-8190-F360BD9CAC81}"/>
+    <hyperlink ref="F6" r:id="rId22" display="560R, 500mW, 0805, mouser" xr:uid="{5B952F8C-A114-4DC2-AE8C-AD69694965C0}"/>
+    <hyperlink ref="F11" r:id="rId23" xr:uid="{5DCDF43F-3FBC-40A4-AC6E-8B88FFEA24DC}"/>
+    <hyperlink ref="F35" r:id="rId24" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
+    <hyperlink ref="F36" r:id="rId25" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
+    <hyperlink ref="F37" r:id="rId26" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632EB6C2-AFD9-4F08-83E3-1CB6CD9D82EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86311BEF-AC7C-4538-9DB4-16928A6D7370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86311BEF-AC7C-4538-9DB4-16928A6D7370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F4747-D9B1-414D-BB60-4EEA114D8C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
   <si>
     <t>Id</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>Red LED, 20mA 1.9V, 0805</t>
+  </si>
+  <si>
+    <t>45.3k, 125mW, vishay</t>
+  </si>
+  <si>
+    <t>Datasheet says it 0.6-7V output, desc.6-7V</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,12 +810,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,11 +1032,11 @@
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1498,7 +1498,9 @@
       <c r="E3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -2026,7 +2028,9 @@
       <c r="F27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2163,7 +2167,7 @@
       <c r="E35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>120</v>
       </c>
       <c r="G35" s="1"/>
@@ -2365,8 +2369,9 @@
     <hyperlink ref="F35" r:id="rId24" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
     <hyperlink ref="F36" r:id="rId25" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
     <hyperlink ref="F37" r:id="rId26" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
+    <hyperlink ref="F3" r:id="rId27" xr:uid="{D4D1F7D7-BE9E-4734-96F3-48B07F1A3520}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F4747-D9B1-414D-BB60-4EEA114D8C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC2986-4923-48AD-A755-9628C5A9B59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC2986-4923-48AD-A755-9628C5A9B59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2E270C-E545-4F7A-BC7A-9EEA64C55982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sumecBOM" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
   <si>
     <t>Id</t>
   </si>
@@ -74,9 +74,6 @@
     <t>LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -374,15 +371,6 @@
     <t>10k, 250mW, 0805, vishay</t>
   </si>
   <si>
-    <t>RLED</t>
-  </si>
-  <si>
-    <t>YLED</t>
-  </si>
-  <si>
-    <t>GLED</t>
-  </si>
-  <si>
     <t>560R, 500mW, 0805, bourns</t>
   </si>
   <si>
@@ -402,6 +390,30 @@
   </si>
   <si>
     <t>Datasheet says it 0.6-7V output, desc.6-7V</t>
+  </si>
+  <si>
+    <t>ESP32E - Natani</t>
+  </si>
+  <si>
+    <t>4 in total</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>R_LED</t>
+  </si>
+  <si>
+    <t>Y_LED</t>
+  </si>
+  <si>
+    <t>G_LED</t>
+  </si>
+  <si>
+    <t>ESP32-WROOM-32E-N16</t>
+  </si>
+  <si>
+    <t>ESP32-WROOM32</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1002,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,6 +1048,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,24 +1431,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.1796875" customWidth="1"/>
-    <col min="3" max="3" width="50.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
-    <col min="6" max="6" width="37.08984375" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" customWidth="1"/>
-    <col min="9" max="9" width="34.54296875" customWidth="1"/>
-    <col min="10" max="10" width="36.81640625" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="10" max="10" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1447,160 +1462,160 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1609,189 +1624,189 @@
         <v>11</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F16" s="17"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1799,73 +1814,73 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -1874,103 +1889,103 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1982,63 +1997,63 @@
         <v>9</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -2055,128 +2070,136 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>95</v>
+        <v>122</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>119</v>
@@ -2184,78 +2207,71 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2265,7 +2281,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2275,7 +2291,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2285,13 +2301,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2301,40 +2317,40 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F72" s="1"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2345,9 +2361,9 @@
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" xr:uid="{6D17D59D-B00C-49B9-9F71-5CB881159606}"/>
     <hyperlink ref="F15" r:id="rId2" xr:uid="{EF958A18-93E8-4119-9A8D-0291CBEA1C5F}"/>
-    <hyperlink ref="F30" r:id="rId3" xr:uid="{53F6B493-A6EA-4D50-9EC0-2A231FA87A52}"/>
-    <hyperlink ref="F32" r:id="rId4" xr:uid="{0C154578-CACA-4BBA-95A2-6BC7B349F734}"/>
-    <hyperlink ref="F31" r:id="rId5" xr:uid="{CEC642B8-821A-4FB3-819F-7AE36F50F009}"/>
+    <hyperlink ref="F29" r:id="rId3" xr:uid="{53F6B493-A6EA-4D50-9EC0-2A231FA87A52}"/>
+    <hyperlink ref="F31" r:id="rId4" xr:uid="{0C154578-CACA-4BBA-95A2-6BC7B349F734}"/>
+    <hyperlink ref="F30" r:id="rId5" xr:uid="{CEC642B8-821A-4FB3-819F-7AE36F50F009}"/>
     <hyperlink ref="F9" r:id="rId6" display="22uF, 0805 " xr:uid="{F83FEE82-BDC4-4749-A0AD-7C138931EBAE}"/>
     <hyperlink ref="F18" r:id="rId7" xr:uid="{46EB7F69-41B0-4BD1-B990-020850FB8150}"/>
     <hyperlink ref="F28" r:id="rId8" display="DRV8874.  mouser" xr:uid="{6B760059-D220-4D00-B53A-4A7BF2A0B1FE}"/>
@@ -2366,12 +2382,13 @@
     <hyperlink ref="F8" r:id="rId21" display="15R mouser" xr:uid="{5F0952B8-402D-4D87-8190-F360BD9CAC81}"/>
     <hyperlink ref="F6" r:id="rId22" display="560R, 500mW, 0805, mouser" xr:uid="{5B952F8C-A114-4DC2-AE8C-AD69694965C0}"/>
     <hyperlink ref="F11" r:id="rId23" xr:uid="{5DCDF43F-3FBC-40A4-AC6E-8B88FFEA24DC}"/>
-    <hyperlink ref="F35" r:id="rId24" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
-    <hyperlink ref="F36" r:id="rId25" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
-    <hyperlink ref="F37" r:id="rId26" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
+    <hyperlink ref="F32" r:id="rId24" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
+    <hyperlink ref="F33" r:id="rId25" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
+    <hyperlink ref="F34" r:id="rId26" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
     <hyperlink ref="F3" r:id="rId27" xr:uid="{D4D1F7D7-BE9E-4734-96F3-48B07F1A3520}"/>
+    <hyperlink ref="F36" r:id="rId28" xr:uid="{C629534A-7226-40CF-A252-D4192011C276}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2E270C-E545-4F7A-BC7A-9EEA64C55982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89553336-461F-424D-9B5A-5140EA987080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sumecBOM" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="175">
   <si>
     <t>Designator</t>
   </si>
@@ -414,6 +411,153 @@
   </si>
   <si>
     <t>ESP32-WROOM32</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>Vishay_MINICAST-3Pin</t>
+  </si>
+  <si>
+    <t>VQFN-16-1EP_3x3mm_P0.5mm_EP1.68x1.68mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>TestPoint</t>
+  </si>
+  <si>
+    <t>TestPoint_Pad_1.0x1.0mm</t>
+  </si>
+  <si>
+    <t>TP1,TP2,TP4,TP3</t>
+  </si>
+  <si>
+    <t>SW4,SW5,SW3,SW2</t>
+  </si>
+  <si>
+    <t>Custom_SPDT_2.5_Switch</t>
+  </si>
+  <si>
+    <t>0R/R-Imode</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>R7,R6</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>10k.mcu</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R17,R16,R15,R19</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R13,R12</t>
+  </si>
+  <si>
+    <t>0R/R-Ipropi</t>
+  </si>
+  <si>
+    <t>R10,R11</t>
+  </si>
+  <si>
+    <t>R1,R4,R2,R8,R9,R18</t>
+  </si>
+  <si>
+    <t>Q_PMOS_GSD</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q_PMOS</t>
+  </si>
+  <si>
+    <t>J6,J11,J9,J10,J13,J5</t>
+  </si>
+  <si>
+    <t>J3,J4,J7</t>
+  </si>
+  <si>
+    <t>USB_TypeC</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>JST_SH_BM06B-SRSS-TB_1x06-1MP_P1.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>J12,J14</t>
+  </si>
+  <si>
+    <t>IC2,IC3</t>
+  </si>
+  <si>
+    <t>Polyfuse/50R</t>
+  </si>
+  <si>
+    <t>Fuse_1206_3216Metric_Pad1.42x1.75mm_HandSolder</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D4,D5,D7,D6</t>
+  </si>
+  <si>
+    <t>D2,D1,D3</t>
+  </si>
+  <si>
+    <t>CP_EIA-2012-12_Kemet-R_Pad1.30x1.05mm_HandSolder</t>
+  </si>
+  <si>
+    <t>C9,C6,C7,C8,C2</t>
+  </si>
+  <si>
+    <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+  </si>
+  <si>
+    <t>C4,C5,C16,C15,C10,C21,C12,C14,C20</t>
+  </si>
+  <si>
+    <t>CP_EIA-3216-18_Kemet-A_Pad1.58x1.35mm_HandSolder</t>
+  </si>
+  <si>
+    <t>C3,C17,C19,C22,C18,C23</t>
+  </si>
+  <si>
+    <t>100nF.boot</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>100nF.en</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -597,7 +741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,12 +936,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +1140,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1013,16 +1151,13 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
@@ -1031,26 +1166,28 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,964 +1566,1229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="55" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1"/>
-    <col min="10" max="10" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="46.08984375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.81640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="1">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B75" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="1">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="1">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F57" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F72" s="1"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{6D17D59D-B00C-49B9-9F71-5CB881159606}"/>
-    <hyperlink ref="F15" r:id="rId2" xr:uid="{EF958A18-93E8-4119-9A8D-0291CBEA1C5F}"/>
-    <hyperlink ref="F29" r:id="rId3" xr:uid="{53F6B493-A6EA-4D50-9EC0-2A231FA87A52}"/>
-    <hyperlink ref="F31" r:id="rId4" xr:uid="{0C154578-CACA-4BBA-95A2-6BC7B349F734}"/>
-    <hyperlink ref="F30" r:id="rId5" xr:uid="{CEC642B8-821A-4FB3-819F-7AE36F50F009}"/>
-    <hyperlink ref="F9" r:id="rId6" display="22uF, 0805 " xr:uid="{F83FEE82-BDC4-4749-A0AD-7C138931EBAE}"/>
-    <hyperlink ref="F18" r:id="rId7" xr:uid="{46EB7F69-41B0-4BD1-B990-020850FB8150}"/>
-    <hyperlink ref="F28" r:id="rId8" display="DRV8874.  mouser" xr:uid="{6B760059-D220-4D00-B53A-4A7BF2A0B1FE}"/>
-    <hyperlink ref="F27" r:id="rId9" xr:uid="{BF4FF71A-DBA0-49C4-B4C5-8E838503C33D}"/>
-    <hyperlink ref="F10" r:id="rId10" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{F920BB65-66A9-4D8E-972F-F16A601CD902}"/>
-    <hyperlink ref="F12" r:id="rId11" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{086F398F-F957-4413-9B1E-846AA6EDFE88}"/>
-    <hyperlink ref="F14" r:id="rId12" display="TPS62133 5V" xr:uid="{DFEBCF9B-890F-47F5-B667-6E08AD68E59E}"/>
-    <hyperlink ref="F19" r:id="rId13" xr:uid="{A4DFFD86-BFDF-4E81-8991-0B1D0DDCAB99}"/>
-    <hyperlink ref="F13" r:id="rId14" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{95DAAF32-0A4F-4478-8001-1D7F97329858}"/>
-    <hyperlink ref="F26" r:id="rId15" xr:uid="{6600A17B-EAC3-45E3-A2CB-5F3376BCA2AF}"/>
-    <hyperlink ref="F21" r:id="rId16" xr:uid="{B14FB3A0-2AF7-4BF3-8981-B6124A39B6EC}"/>
-    <hyperlink ref="F2" r:id="rId17" display="10k mouser" xr:uid="{0648B27D-D74F-41C7-A972-856D1F021628}"/>
-    <hyperlink ref="F5" r:id="rId18" display="0R. 250mW, 0805" xr:uid="{E873131F-2EDC-41CC-BD31-48C256E42603}"/>
-    <hyperlink ref="F4" r:id="rId19" display="100k, 250mW, 0805" xr:uid="{3F110D6B-CD50-410E-8133-83F76B773E64}"/>
-    <hyperlink ref="F7" r:id="rId20" display="100R, 250mW, 0805" xr:uid="{96C04619-73AD-4532-8564-AAB3DC023DDA}"/>
-    <hyperlink ref="F8" r:id="rId21" display="15R mouser" xr:uid="{5F0952B8-402D-4D87-8190-F360BD9CAC81}"/>
-    <hyperlink ref="F6" r:id="rId22" display="560R, 500mW, 0805, mouser" xr:uid="{5B952F8C-A114-4DC2-AE8C-AD69694965C0}"/>
-    <hyperlink ref="F11" r:id="rId23" xr:uid="{5DCDF43F-3FBC-40A4-AC6E-8B88FFEA24DC}"/>
-    <hyperlink ref="F32" r:id="rId24" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
-    <hyperlink ref="F33" r:id="rId25" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
-    <hyperlink ref="F34" r:id="rId26" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
-    <hyperlink ref="F3" r:id="rId27" xr:uid="{D4D1F7D7-BE9E-4734-96F3-48B07F1A3520}"/>
-    <hyperlink ref="F36" r:id="rId28" xr:uid="{C629534A-7226-40CF-A252-D4192011C276}"/>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{6D17D59D-B00C-49B9-9F71-5CB881159606}"/>
+    <hyperlink ref="E15" r:id="rId2" xr:uid="{EF958A18-93E8-4119-9A8D-0291CBEA1C5F}"/>
+    <hyperlink ref="E29" r:id="rId3" xr:uid="{53F6B493-A6EA-4D50-9EC0-2A231FA87A52}"/>
+    <hyperlink ref="E31" r:id="rId4" xr:uid="{0C154578-CACA-4BBA-95A2-6BC7B349F734}"/>
+    <hyperlink ref="E30" r:id="rId5" xr:uid="{CEC642B8-821A-4FB3-819F-7AE36F50F009}"/>
+    <hyperlink ref="E9" r:id="rId6" display="22uF, 0805 " xr:uid="{F83FEE82-BDC4-4749-A0AD-7C138931EBAE}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{46EB7F69-41B0-4BD1-B990-020850FB8150}"/>
+    <hyperlink ref="E28" r:id="rId8" display="DRV8874.  mouser" xr:uid="{6B760059-D220-4D00-B53A-4A7BF2A0B1FE}"/>
+    <hyperlink ref="E27" r:id="rId9" xr:uid="{BF4FF71A-DBA0-49C4-B4C5-8E838503C33D}"/>
+    <hyperlink ref="E10" r:id="rId10" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{F920BB65-66A9-4D8E-972F-F16A601CD902}"/>
+    <hyperlink ref="E12" r:id="rId11" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{086F398F-F957-4413-9B1E-846AA6EDFE88}"/>
+    <hyperlink ref="E14" r:id="rId12" display="TPS62133 5V" xr:uid="{DFEBCF9B-890F-47F5-B667-6E08AD68E59E}"/>
+    <hyperlink ref="E19" r:id="rId13" xr:uid="{A4DFFD86-BFDF-4E81-8991-0B1D0DDCAB99}"/>
+    <hyperlink ref="E13" r:id="rId14" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{95DAAF32-0A4F-4478-8001-1D7F97329858}"/>
+    <hyperlink ref="E26" r:id="rId15" xr:uid="{6600A17B-EAC3-45E3-A2CB-5F3376BCA2AF}"/>
+    <hyperlink ref="E21" r:id="rId16" xr:uid="{B14FB3A0-2AF7-4BF3-8981-B6124A39B6EC}"/>
+    <hyperlink ref="E2" r:id="rId17" display="10k mouser" xr:uid="{0648B27D-D74F-41C7-A972-856D1F021628}"/>
+    <hyperlink ref="E5" r:id="rId18" display="0R. 250mW, 0805" xr:uid="{E873131F-2EDC-41CC-BD31-48C256E42603}"/>
+    <hyperlink ref="E4" r:id="rId19" display="100k, 250mW, 0805" xr:uid="{3F110D6B-CD50-410E-8133-83F76B773E64}"/>
+    <hyperlink ref="E7" r:id="rId20" display="100R, 250mW, 0805" xr:uid="{96C04619-73AD-4532-8564-AAB3DC023DDA}"/>
+    <hyperlink ref="E8" r:id="rId21" display="15R mouser" xr:uid="{5F0952B8-402D-4D87-8190-F360BD9CAC81}"/>
+    <hyperlink ref="E6" r:id="rId22" display="560R, 500mW, 0805, mouser" xr:uid="{5B952F8C-A114-4DC2-AE8C-AD69694965C0}"/>
+    <hyperlink ref="E11" r:id="rId23" xr:uid="{5DCDF43F-3FBC-40A4-AC6E-8B88FFEA24DC}"/>
+    <hyperlink ref="E32" r:id="rId24" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
+    <hyperlink ref="E33" r:id="rId25" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
+    <hyperlink ref="E34" r:id="rId26" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
+    <hyperlink ref="E3" r:id="rId27" xr:uid="{D4D1F7D7-BE9E-4734-96F3-48B07F1A3520}"/>
+    <hyperlink ref="E36" r:id="rId28" xr:uid="{C629534A-7226-40CF-A252-D4192011C276}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89553336-461F-424D-9B5A-5140EA987080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1366B5-C073-481E-9490-42EAD4309385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
   <si>
     <t>Designator</t>
   </si>
@@ -411,153 +411,6 @@
   </si>
   <si>
     <t>ESP32-WROOM32</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>Vishay_MINICAST-3Pin</t>
-  </si>
-  <si>
-    <t>VQFN-16-1EP_3x3mm_P0.5mm_EP1.68x1.68mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>TestPoint</t>
-  </si>
-  <si>
-    <t>TestPoint_Pad_1.0x1.0mm</t>
-  </si>
-  <si>
-    <t>TP1,TP2,TP4,TP3</t>
-  </si>
-  <si>
-    <t>SW4,SW5,SW3,SW2</t>
-  </si>
-  <si>
-    <t>Custom_SPDT_2.5_Switch</t>
-  </si>
-  <si>
-    <t>0R/R-Imode</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>R7,R6</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>10k.mcu</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R17,R16,R15,R19</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R13,R12</t>
-  </si>
-  <si>
-    <t>0R/R-Ipropi</t>
-  </si>
-  <si>
-    <t>R10,R11</t>
-  </si>
-  <si>
-    <t>R1,R4,R2,R8,R9,R18</t>
-  </si>
-  <si>
-    <t>Q_PMOS_GSD</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q_PMOS</t>
-  </si>
-  <si>
-    <t>J6,J11,J9,J10,J13,J5</t>
-  </si>
-  <si>
-    <t>J3,J4,J7</t>
-  </si>
-  <si>
-    <t>USB_TypeC</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>JST_SH_BM06B-SRSS-TB_1x06-1MP_P1.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>J12,J14</t>
-  </si>
-  <si>
-    <t>IC2,IC3</t>
-  </si>
-  <si>
-    <t>Polyfuse/50R</t>
-  </si>
-  <si>
-    <t>Fuse_1206_3216Metric_Pad1.42x1.75mm_HandSolder</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D4,D5,D7,D6</t>
-  </si>
-  <si>
-    <t>D2,D1,D3</t>
-  </si>
-  <si>
-    <t>CP_EIA-2012-12_Kemet-R_Pad1.30x1.05mm_HandSolder</t>
-  </si>
-  <si>
-    <t>C9,C6,C7,C8,C2</t>
-  </si>
-  <si>
-    <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
-  </si>
-  <si>
-    <t>C4,C5,C16,C15,C10,C21,C12,C14,C20</t>
-  </si>
-  <si>
-    <t>CP_EIA-3216-18_Kemet-A_Pad1.58x1.35mm_HandSolder</t>
-  </si>
-  <si>
-    <t>C3,C17,C19,C22,C18,C23</t>
-  </si>
-  <si>
-    <t>100nF.boot</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>100nF.en</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +993,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,9 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1568,16 +1418,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.08984375" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" style="1" customWidth="1"/>
@@ -2227,536 +2077,156 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A39" s="15"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A40" s="15"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="A41" s="15"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="A42" s="15"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="1">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A43" s="15"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" s="1">
-        <v>9</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A44" s="15"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="1">
-        <v>5</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A45" s="15"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A46" s="15"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="1">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A47" s="15"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="1">
-        <v>6</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="1">
-        <v>6</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="1">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="1">
-        <v>4</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="1">
-        <v>4</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A48" s="15"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="15"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="15"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="15"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="15"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="15"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="15"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="15"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="15"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="15"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="15"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="15"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="15"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="15"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="15"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="15"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="15"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="15"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="15"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="15"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="15"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="15"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="15"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="15"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="15"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="15"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="15"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="15"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="15"/>
+      <c r="C76" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89553336-461F-424D-9B5A-5140EA987080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844A14AA-2B17-4AA2-B6B1-4A4C12E74210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="168">
   <si>
     <t>Designator</t>
   </si>
@@ -416,9 +416,6 @@
     <t>J8</t>
   </si>
   <si>
-    <t>Vishay_MINICAST-3Pin</t>
-  </si>
-  <si>
     <t>VQFN-16-1EP_3x3mm_P0.5mm_EP1.68x1.68mm_ThermalVias</t>
   </si>
   <si>
@@ -431,9 +428,6 @@
     <t>TP1,TP2,TP4,TP3</t>
   </si>
   <si>
-    <t>SW4,SW5,SW3,SW2</t>
-  </si>
-  <si>
     <t>Custom_SPDT_2.5_Switch</t>
   </si>
   <si>
@@ -452,18 +446,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>10k.mcu</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R17,R16,R15,R19</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
     <t>R13,R12</t>
   </si>
   <si>
@@ -473,18 +455,6 @@
     <t>R10,R11</t>
   </si>
   <si>
-    <t>R1,R4,R2,R8,R9,R18</t>
-  </si>
-  <si>
-    <t>Q_PMOS_GSD</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
     <t>Q_PMOS</t>
   </si>
   <si>
@@ -524,9 +494,6 @@
     <t>D4,D5,D7,D6</t>
   </si>
   <si>
-    <t>D2,D1,D3</t>
-  </si>
-  <si>
     <t>CP_EIA-2012-12_Kemet-R_Pad1.30x1.05mm_HandSolder</t>
   </si>
   <si>
@@ -536,28 +503,40 @@
     <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
-    <t>C4,C5,C16,C15,C10,C21,C12,C14,C20</t>
-  </si>
-  <si>
     <t>CP_EIA-3216-18_Kemet-A_Pad1.58x1.35mm_HandSolder</t>
   </si>
   <si>
-    <t>C3,C17,C19,C22,C18,C23</t>
-  </si>
-  <si>
-    <t>100nF.boot</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>100nF.en</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>C3,C17,C19,C24,C18,C25</t>
+  </si>
+  <si>
+    <t>C4,C5,C16,C15,C10,C21,C23,C22,C12,C14,C20</t>
+  </si>
+  <si>
+    <t>D2,D1</t>
+  </si>
+  <si>
+    <t>Q1,Q2</t>
+  </si>
+  <si>
+    <t>R1,R4,R14,R2,R8,R9,R19</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R18,R17,R16,R20</t>
+  </si>
+  <si>
+    <t>SW3,SW4,SW2,SW5</t>
+  </si>
+  <si>
+    <t>Vishay_TSOP382</t>
+  </si>
+  <si>
+    <t>Polyfuse, Itrip 500mA, 16V</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1119,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,9 +1165,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1568,15 +1544,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="46.08984375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="43" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.1796875" style="1" customWidth="1"/>
@@ -1612,178 +1588,154 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
@@ -1792,300 +1744,302 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>117</v>
@@ -2094,150 +2048,136 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>20</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
-      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="A36" s="15"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="15" t="s">
         <v>66</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -2245,405 +2185,405 @@
         <v>62</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="15" t="s">
         <v>61</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>172</v>
+        <v>6</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>170</v>
+        <v>11</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C43" s="1">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>13</v>
+      <c r="E44" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1">
-        <v>5</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="1">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="15" t="s">
+      <c r="B61" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="1">
         <v>7</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="1">
-        <v>6</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="1">
-        <v>6</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="1">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>134</v>
+      <c r="D68" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2651,18 +2591,18 @@
         <v>53</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>68</v>
@@ -2670,22 +2610,22 @@
       <c r="C70" s="1">
         <v>4</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" s="1">
         <v>4</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>129</v>
+      <c r="D71" s="15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2693,12 +2633,12 @@
         <v>12</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2712,7 +2652,7 @@
       <c r="C73" s="1">
         <v>1</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2726,7 +2666,7 @@
       <c r="C74" s="1">
         <v>1</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2735,62 +2675,55 @@
         <v>6</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A76" s="15"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
+    <sortCondition ref="A2:A36"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{6D17D59D-B00C-49B9-9F71-5CB881159606}"/>
-    <hyperlink ref="E15" r:id="rId2" xr:uid="{EF958A18-93E8-4119-9A8D-0291CBEA1C5F}"/>
-    <hyperlink ref="E29" r:id="rId3" xr:uid="{53F6B493-A6EA-4D50-9EC0-2A231FA87A52}"/>
-    <hyperlink ref="E31" r:id="rId4" xr:uid="{0C154578-CACA-4BBA-95A2-6BC7B349F734}"/>
-    <hyperlink ref="E30" r:id="rId5" xr:uid="{CEC642B8-821A-4FB3-819F-7AE36F50F009}"/>
-    <hyperlink ref="E9" r:id="rId6" display="22uF, 0805 " xr:uid="{F83FEE82-BDC4-4749-A0AD-7C138931EBAE}"/>
-    <hyperlink ref="E18" r:id="rId7" xr:uid="{46EB7F69-41B0-4BD1-B990-020850FB8150}"/>
-    <hyperlink ref="E28" r:id="rId8" display="DRV8874.  mouser" xr:uid="{6B760059-D220-4D00-B53A-4A7BF2A0B1FE}"/>
-    <hyperlink ref="E27" r:id="rId9" xr:uid="{BF4FF71A-DBA0-49C4-B4C5-8E838503C33D}"/>
-    <hyperlink ref="E10" r:id="rId10" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{F920BB65-66A9-4D8E-972F-F16A601CD902}"/>
-    <hyperlink ref="E12" r:id="rId11" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{086F398F-F957-4413-9B1E-846AA6EDFE88}"/>
-    <hyperlink ref="E14" r:id="rId12" display="TPS62133 5V" xr:uid="{DFEBCF9B-890F-47F5-B667-6E08AD68E59E}"/>
-    <hyperlink ref="E19" r:id="rId13" xr:uid="{A4DFFD86-BFDF-4E81-8991-0B1D0DDCAB99}"/>
-    <hyperlink ref="E13" r:id="rId14" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{95DAAF32-0A4F-4478-8001-1D7F97329858}"/>
-    <hyperlink ref="E26" r:id="rId15" xr:uid="{6600A17B-EAC3-45E3-A2CB-5F3376BCA2AF}"/>
-    <hyperlink ref="E21" r:id="rId16" xr:uid="{B14FB3A0-2AF7-4BF3-8981-B6124A39B6EC}"/>
-    <hyperlink ref="E2" r:id="rId17" display="10k mouser" xr:uid="{0648B27D-D74F-41C7-A972-856D1F021628}"/>
-    <hyperlink ref="E5" r:id="rId18" display="0R. 250mW, 0805" xr:uid="{E873131F-2EDC-41CC-BD31-48C256E42603}"/>
-    <hyperlink ref="E4" r:id="rId19" display="100k, 250mW, 0805" xr:uid="{3F110D6B-CD50-410E-8133-83F76B773E64}"/>
-    <hyperlink ref="E7" r:id="rId20" display="100R, 250mW, 0805" xr:uid="{96C04619-73AD-4532-8564-AAB3DC023DDA}"/>
-    <hyperlink ref="E8" r:id="rId21" display="15R mouser" xr:uid="{5F0952B8-402D-4D87-8190-F360BD9CAC81}"/>
-    <hyperlink ref="E6" r:id="rId22" display="560R, 500mW, 0805, mouser" xr:uid="{5B952F8C-A114-4DC2-AE8C-AD69694965C0}"/>
-    <hyperlink ref="E11" r:id="rId23" xr:uid="{5DCDF43F-3FBC-40A4-AC6E-8B88FFEA24DC}"/>
-    <hyperlink ref="E32" r:id="rId24" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
-    <hyperlink ref="E33" r:id="rId25" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
-    <hyperlink ref="E34" r:id="rId26" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
-    <hyperlink ref="E3" r:id="rId27" xr:uid="{D4D1F7D7-BE9E-4734-96F3-48B07F1A3520}"/>
-    <hyperlink ref="E36" r:id="rId28" xr:uid="{C629534A-7226-40CF-A252-D4192011C276}"/>
+    <hyperlink ref="E29" r:id="rId1" xr:uid="{6D17D59D-B00C-49B9-9F71-5CB881159606}"/>
+    <hyperlink ref="E31" r:id="rId2" xr:uid="{EF958A18-93E8-4119-9A8D-0291CBEA1C5F}"/>
+    <hyperlink ref="E44" r:id="rId3" xr:uid="{53F6B493-A6EA-4D50-9EC0-2A231FA87A52}"/>
+    <hyperlink ref="E19" r:id="rId4" xr:uid="{0C154578-CACA-4BBA-95A2-6BC7B349F734}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{CEC642B8-821A-4FB3-819F-7AE36F50F009}"/>
+    <hyperlink ref="E43" r:id="rId6" display="22uF, 0805 " xr:uid="{F83FEE82-BDC4-4749-A0AD-7C138931EBAE}"/>
+    <hyperlink ref="E20" r:id="rId7" xr:uid="{46EB7F69-41B0-4BD1-B990-020850FB8150}"/>
+    <hyperlink ref="E11" r:id="rId8" display="DRV8874.  mouser" xr:uid="{6B760059-D220-4D00-B53A-4A7BF2A0B1FE}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{BF4FF71A-DBA0-49C4-B4C5-8E838503C33D}"/>
+    <hyperlink ref="E42" r:id="rId10" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{F920BB65-66A9-4D8E-972F-F16A601CD902}"/>
+    <hyperlink ref="E40" r:id="rId11" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{086F398F-F957-4413-9B1E-846AA6EDFE88}"/>
+    <hyperlink ref="E30" r:id="rId12" display="TPS62133 5V" xr:uid="{DFEBCF9B-890F-47F5-B667-6E08AD68E59E}"/>
+    <hyperlink ref="E28" r:id="rId13" xr:uid="{A4DFFD86-BFDF-4E81-8991-0B1D0DDCAB99}"/>
+    <hyperlink ref="E41" r:id="rId14" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{95DAAF32-0A4F-4478-8001-1D7F97329858}"/>
+    <hyperlink ref="E15" r:id="rId15" xr:uid="{6600A17B-EAC3-45E3-A2CB-5F3376BCA2AF}"/>
+    <hyperlink ref="E12" r:id="rId16" xr:uid="{B14FB3A0-2AF7-4BF3-8981-B6124A39B6EC}"/>
+    <hyperlink ref="E21" r:id="rId17" display="10k mouser" xr:uid="{0648B27D-D74F-41C7-A972-856D1F021628}"/>
+    <hyperlink ref="E27" r:id="rId18" display="0R. 250mW, 0805" xr:uid="{E873131F-2EDC-41CC-BD31-48C256E42603}"/>
+    <hyperlink ref="E26" r:id="rId19" display="100k, 250mW, 0805" xr:uid="{3F110D6B-CD50-410E-8133-83F76B773E64}"/>
+    <hyperlink ref="E22" r:id="rId20" display="100R, 250mW, 0805" xr:uid="{96C04619-73AD-4532-8564-AAB3DC023DDA}"/>
+    <hyperlink ref="E24" r:id="rId21" display="15R mouser" xr:uid="{5F0952B8-402D-4D87-8190-F360BD9CAC81}"/>
+    <hyperlink ref="E23" r:id="rId22" display="560R, 500mW, 0805, mouser" xr:uid="{5B952F8C-A114-4DC2-AE8C-AD69694965C0}"/>
+    <hyperlink ref="E39" r:id="rId23" xr:uid="{5DCDF43F-3FBC-40A4-AC6E-8B88FFEA24DC}"/>
+    <hyperlink ref="E48" r:id="rId24" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
+    <hyperlink ref="E46" r:id="rId25" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
+    <hyperlink ref="E47" r:id="rId26" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
+    <hyperlink ref="E25" r:id="rId27" xr:uid="{D4D1F7D7-BE9E-4734-96F3-48B07F1A3520}"/>
+    <hyperlink ref="E2" r:id="rId28" xr:uid="{C629534A-7226-40CF-A252-D4192011C276}"/>
+    <hyperlink ref="E49" r:id="rId29" display="Polyfuse, Itrip: 500mA, 16V" xr:uid="{AAF42F9B-B234-4778-9B95-79056EFCAD9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844A14AA-2B17-4AA2-B6B1-4A4C12E74210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F99AE2-5827-4B9E-A91D-8381E857B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
   <si>
     <t>Designator</t>
   </si>
@@ -59,9 +59,6 @@
     <t>USB_Type_C</t>
   </si>
   <si>
-    <t>TYPE-C-31-M-12</t>
-  </si>
-  <si>
     <t>D_Schottky</t>
   </si>
   <si>
@@ -149,15 +146,9 @@
     <t>560R</t>
   </si>
   <si>
-    <t>J10</t>
-  </si>
-  <si>
     <t>Conn_01x06_Socket</t>
   </si>
   <si>
-    <t>J14,J15</t>
-  </si>
-  <si>
     <t>1.5uH</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>J13</t>
-  </si>
-  <si>
     <t>2.2uH</t>
   </si>
   <si>
@@ -188,114 +176,36 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>IC3,IC2</t>
-  </si>
-  <si>
-    <t>Custom_SPDT_4.7mm_Switch</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>22uF</t>
   </si>
   <si>
-    <t>PMOS</t>
-  </si>
-  <si>
     <t>SOT-23-3</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>D3,D4,D6,D5</t>
-  </si>
-  <si>
     <t>22nF</t>
   </si>
   <si>
     <t>C11,C13</t>
   </si>
   <si>
-    <t>D2,D1,D7</t>
-  </si>
-  <si>
     <t>45k</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>3.3nF</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>SW_SPST_EVQPE1</t>
   </si>
   <si>
-    <t>J3,J4,J6</t>
-  </si>
-  <si>
     <t>TPS62133</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R5,R6,R7,R8</t>
-  </si>
-  <si>
-    <t>R17,R18</t>
-  </si>
-  <si>
-    <t>R1,R3,R9,R10,R11,R19</t>
-  </si>
-  <si>
-    <t>R12,R14,R15,R16</t>
-  </si>
-  <si>
-    <t>C1,C5,C6,C8,C10</t>
-  </si>
-  <si>
-    <t>C3,C7,C9,C12,C14,C15,C16,C22,C23,C24,C25</t>
-  </si>
-  <si>
-    <t>C4,C17,C18,C19,C20,C21</t>
-  </si>
-  <si>
-    <t>J2,J5,J7,J8,J9,J11</t>
-  </si>
-  <si>
-    <t>SW2,SW3,SW4,SW5</t>
-  </si>
-  <si>
-    <t>JST_SH_SM06B-SRSS-TB_1x06-1MP_P1.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>R 0805_2012Metric_HandSolder</t>
-  </si>
-  <si>
-    <t>C 0805_2012Metric_HandSolder</t>
-  </si>
-  <si>
-    <t>CP 1206_3216Metric Kemet-A_HandSolder</t>
-  </si>
-  <si>
-    <t>VQFN-16_ThermalVias</t>
-  </si>
-  <si>
-    <t>USB C mouser</t>
-  </si>
-  <si>
     <t>Molex PicoBlade, 6 Pin, vertical, mouser</t>
   </si>
   <si>
@@ -341,9 +251,6 @@
     <t>ESD PROT</t>
   </si>
   <si>
-    <t>SW SPDT</t>
-  </si>
-  <si>
     <t>10uF, 16V, 1206, tantal</t>
   </si>
   <si>
@@ -386,15 +293,9 @@
     <t>45.3k, 125mW, vishay</t>
   </si>
   <si>
-    <t>Datasheet says it 0.6-7V output, desc.6-7V</t>
-  </si>
-  <si>
     <t>ESP32E - Natani</t>
   </si>
   <si>
-    <t>4 in total</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -419,27 +320,12 @@
     <t>VQFN-16-1EP_3x3mm_P0.5mm_EP1.68x1.68mm_ThermalVias</t>
   </si>
   <si>
-    <t>TestPoint</t>
-  </si>
-  <si>
-    <t>TestPoint_Pad_1.0x1.0mm</t>
-  </si>
-  <si>
-    <t>TP1,TP2,TP4,TP3</t>
-  </si>
-  <si>
     <t>Custom_SPDT_2.5_Switch</t>
   </si>
   <si>
-    <t>0R/R-Imode</t>
-  </si>
-  <si>
     <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
   </si>
   <si>
-    <t>R7,R6</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
@@ -449,12 +335,6 @@
     <t>R13,R12</t>
   </si>
   <si>
-    <t>0R/R-Ipropi</t>
-  </si>
-  <si>
-    <t>R10,R11</t>
-  </si>
-  <si>
     <t>Q_PMOS</t>
   </si>
   <si>
@@ -537,6 +417,18 @@
   </si>
   <si>
     <t>Polyfuse, Itrip 500mA, 16V</t>
+  </si>
+  <si>
+    <t>SPDT SW</t>
+  </si>
+  <si>
+    <t>R6,R7,R10,R11</t>
+  </si>
+  <si>
+    <t>USB-C Conn</t>
+  </si>
+  <si>
+    <t>ESP32-WROOM-1-S3-N8</t>
   </si>
 </sst>
 </file>
@@ -720,7 +612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,12 +825,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,7 +1005,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,20 +1037,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1544,14 +1424,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.54296875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" style="12" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1"/>
@@ -1574,168 +1454,170 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>125</v>
+      <c r="A2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="7"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>84</v>
+      <c r="A3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>83</v>
+      <c r="A4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>61</v>
+      <c r="D4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>83</v>
+      <c r="A5" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>83</v>
+      <c r="A6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>84</v>
+      <c r="A7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>36</v>
+      <c r="A8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>119</v>
+      <c r="A9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
@@ -1743,949 +1625,481 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>29</v>
+      <c r="A13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
+      <c r="D13" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>7</v>
+      <c r="A14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
+      <c r="D14" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>81</v>
+      <c r="A15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
+      <c r="D15" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>23</v>
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="1">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>14</v>
+      <c r="A17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>42</v>
+      <c r="A18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
+      <c r="D18" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>46</v>
+      <c r="A19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>58</v>
+      <c r="A20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>82</v>
+      <c r="A21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>82</v>
+      <c r="A22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>82</v>
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
+      <c r="D23" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>82</v>
+      <c r="A24" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
+      <c r="D24" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>82</v>
+      <c r="A25" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>116</v>
+        <v>7</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>82</v>
+      <c r="A26" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>82</v>
+      <c r="A27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C27" s="1">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>117</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F27" s="13"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>52</v>
+      <c r="A28" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>22</v>
+      <c r="D28" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="F28" s="13"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>68</v>
+      <c r="A29" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
+      <c r="D29" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="F29" s="13"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>85</v>
+      <c r="A30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="11"/>
+      <c r="D30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="13"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>89</v>
+      <c r="A31" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
+      <c r="D31" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>20</v>
+      <c r="A32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="15"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="1">
-        <v>6</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="1">
-        <v>11</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="1">
-        <v>4</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D48" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="1">
-        <v>6</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="1">
-        <v>7</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="1">
-        <v>4</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="1">
-        <v>4</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="1">
-        <v>4</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="15"/>
+      <c r="E37" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I38" s="7"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
@@ -2693,37 +2107,38 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1" xr:uid="{6D17D59D-B00C-49B9-9F71-5CB881159606}"/>
-    <hyperlink ref="E31" r:id="rId2" xr:uid="{EF958A18-93E8-4119-9A8D-0291CBEA1C5F}"/>
-    <hyperlink ref="E44" r:id="rId3" xr:uid="{53F6B493-A6EA-4D50-9EC0-2A231FA87A52}"/>
-    <hyperlink ref="E19" r:id="rId4" xr:uid="{0C154578-CACA-4BBA-95A2-6BC7B349F734}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{CEC642B8-821A-4FB3-819F-7AE36F50F009}"/>
-    <hyperlink ref="E43" r:id="rId6" display="22uF, 0805 " xr:uid="{F83FEE82-BDC4-4749-A0AD-7C138931EBAE}"/>
-    <hyperlink ref="E20" r:id="rId7" xr:uid="{46EB7F69-41B0-4BD1-B990-020850FB8150}"/>
-    <hyperlink ref="E11" r:id="rId8" display="DRV8874.  mouser" xr:uid="{6B760059-D220-4D00-B53A-4A7BF2A0B1FE}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{BF4FF71A-DBA0-49C4-B4C5-8E838503C33D}"/>
-    <hyperlink ref="E42" r:id="rId10" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{F920BB65-66A9-4D8E-972F-F16A601CD902}"/>
-    <hyperlink ref="E40" r:id="rId11" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{086F398F-F957-4413-9B1E-846AA6EDFE88}"/>
-    <hyperlink ref="E30" r:id="rId12" display="TPS62133 5V" xr:uid="{DFEBCF9B-890F-47F5-B667-6E08AD68E59E}"/>
-    <hyperlink ref="E28" r:id="rId13" xr:uid="{A4DFFD86-BFDF-4E81-8991-0B1D0DDCAB99}"/>
-    <hyperlink ref="E41" r:id="rId14" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{95DAAF32-0A4F-4478-8001-1D7F97329858}"/>
-    <hyperlink ref="E15" r:id="rId15" xr:uid="{6600A17B-EAC3-45E3-A2CB-5F3376BCA2AF}"/>
-    <hyperlink ref="E12" r:id="rId16" xr:uid="{B14FB3A0-2AF7-4BF3-8981-B6124A39B6EC}"/>
-    <hyperlink ref="E21" r:id="rId17" display="10k mouser" xr:uid="{0648B27D-D74F-41C7-A972-856D1F021628}"/>
-    <hyperlink ref="E27" r:id="rId18" display="0R. 250mW, 0805" xr:uid="{E873131F-2EDC-41CC-BD31-48C256E42603}"/>
-    <hyperlink ref="E26" r:id="rId19" display="100k, 250mW, 0805" xr:uid="{3F110D6B-CD50-410E-8133-83F76B773E64}"/>
-    <hyperlink ref="E22" r:id="rId20" display="100R, 250mW, 0805" xr:uid="{96C04619-73AD-4532-8564-AAB3DC023DDA}"/>
-    <hyperlink ref="E24" r:id="rId21" display="15R mouser" xr:uid="{5F0952B8-402D-4D87-8190-F360BD9CAC81}"/>
-    <hyperlink ref="E23" r:id="rId22" display="560R, 500mW, 0805, mouser" xr:uid="{5B952F8C-A114-4DC2-AE8C-AD69694965C0}"/>
-    <hyperlink ref="E39" r:id="rId23" xr:uid="{5DCDF43F-3FBC-40A4-AC6E-8B88FFEA24DC}"/>
-    <hyperlink ref="E48" r:id="rId24" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
-    <hyperlink ref="E46" r:id="rId25" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
-    <hyperlink ref="E47" r:id="rId26" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
-    <hyperlink ref="E25" r:id="rId27" xr:uid="{D4D1F7D7-BE9E-4734-96F3-48B07F1A3520}"/>
-    <hyperlink ref="E2" r:id="rId28" xr:uid="{C629534A-7226-40CF-A252-D4192011C276}"/>
-    <hyperlink ref="E49" r:id="rId29" display="Polyfuse, Itrip: 500mA, 16V" xr:uid="{AAF42F9B-B234-4778-9B95-79056EFCAD9E}"/>
+    <hyperlink ref="E33" r:id="rId1" xr:uid="{6D17D59D-B00C-49B9-9F71-5CB881159606}"/>
+    <hyperlink ref="E37" r:id="rId2" xr:uid="{EF958A18-93E8-4119-9A8D-0291CBEA1C5F}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{53F6B493-A6EA-4D50-9EC0-2A231FA87A52}"/>
+    <hyperlink ref="E23" r:id="rId4" xr:uid="{0C154578-CACA-4BBA-95A2-6BC7B349F734}"/>
+    <hyperlink ref="E22" r:id="rId5" xr:uid="{CEC642B8-821A-4FB3-819F-7AE36F50F009}"/>
+    <hyperlink ref="E7" r:id="rId6" display="22uF, 0805 " xr:uid="{F83FEE82-BDC4-4749-A0AD-7C138931EBAE}"/>
+    <hyperlink ref="E24" r:id="rId7" xr:uid="{46EB7F69-41B0-4BD1-B990-020850FB8150}"/>
+    <hyperlink ref="E15" r:id="rId8" display="DRV8874.  mouser" xr:uid="{6B760059-D220-4D00-B53A-4A7BF2A0B1FE}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{BF4FF71A-DBA0-49C4-B4C5-8E838503C33D}"/>
+    <hyperlink ref="E6" r:id="rId10" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{F920BB65-66A9-4D8E-972F-F16A601CD902}"/>
+    <hyperlink ref="E4" r:id="rId11" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{086F398F-F957-4413-9B1E-846AA6EDFE88}"/>
+    <hyperlink ref="E34" r:id="rId12" display="TPS62133 5V" xr:uid="{DFEBCF9B-890F-47F5-B667-6E08AD68E59E}"/>
+    <hyperlink ref="E5" r:id="rId13" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{95DAAF32-0A4F-4478-8001-1D7F97329858}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{6600A17B-EAC3-45E3-A2CB-5F3376BCA2AF}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{B14FB3A0-2AF7-4BF3-8981-B6124A39B6EC}"/>
+    <hyperlink ref="E25" r:id="rId16" display="10k mouser" xr:uid="{0648B27D-D74F-41C7-A972-856D1F021628}"/>
+    <hyperlink ref="E26" r:id="rId17" display="0R. 250mW, 0805" xr:uid="{E873131F-2EDC-41CC-BD31-48C256E42603}"/>
+    <hyperlink ref="E31" r:id="rId18" display="100k, 250mW, 0805" xr:uid="{3F110D6B-CD50-410E-8133-83F76B773E64}"/>
+    <hyperlink ref="E29" r:id="rId19" display="100R, 250mW, 0805" xr:uid="{96C04619-73AD-4532-8564-AAB3DC023DDA}"/>
+    <hyperlink ref="E27" r:id="rId20" display="15R mouser" xr:uid="{5F0952B8-402D-4D87-8190-F360BD9CAC81}"/>
+    <hyperlink ref="E28" r:id="rId21" display="560R, 500mW, 0805, mouser" xr:uid="{5B952F8C-A114-4DC2-AE8C-AD69694965C0}"/>
+    <hyperlink ref="E3" r:id="rId22" xr:uid="{5DCDF43F-3FBC-40A4-AC6E-8B88FFEA24DC}"/>
+    <hyperlink ref="E12" r:id="rId23" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
+    <hyperlink ref="E10" r:id="rId24" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
+    <hyperlink ref="E11" r:id="rId25" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
+    <hyperlink ref="E30" r:id="rId26" xr:uid="{D4D1F7D7-BE9E-4734-96F3-48B07F1A3520}"/>
+    <hyperlink ref="E2" r:id="rId27" xr:uid="{C629534A-7226-40CF-A252-D4192011C276}"/>
+    <hyperlink ref="E13" r:id="rId28" display="Polyfuse, Itrip: 500mA, 16V" xr:uid="{AAF42F9B-B234-4778-9B95-79056EFCAD9E}"/>
+    <hyperlink ref="E32" r:id="rId29" xr:uid="{10BD4C26-5C0A-4000-AC81-EBA28CAEDF55}"/>
+    <hyperlink ref="E35" r:id="rId30" xr:uid="{6B0012C0-BFF2-4E15-80EC-E66FE1C61D46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F99AE2-5827-4B9E-A91D-8381E857B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AB9689-7EAB-4255-BA4D-46CEDAF64485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>22uF, 10V, 0805, tantalum</t>
   </si>
   <si>
-    <t>PMOS, Vds=12V, Vgs(th)=8V, GSD, SOT-23-3</t>
-  </si>
-  <si>
     <t>TPS565242DRLR, 3V3 OUTPUT</t>
   </si>
   <si>
@@ -429,6 +426,9 @@
   </si>
   <si>
     <t>ESP32-WROOM-1-S3-N8</t>
+  </si>
+  <si>
+    <t>PMOS VGS 16V</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1005,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,9 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1424,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,27 +1465,27 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1497,7 +1494,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1505,7 +1502,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1514,15 +1511,15 @@
         <v>51</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -1531,15 +1528,15 @@
         <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
@@ -1548,15 +1545,15 @@
         <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -1570,7 +1567,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>35</v>
@@ -1588,7 +1585,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
@@ -1597,27 +1594,27 @@
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
@@ -1626,29 +1623,29 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1667,14 +1664,14 @@
         <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>3</v>
@@ -1705,17 +1702,17 @@
         <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -1724,14 +1721,14 @@
         <v>37</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>7</v>
@@ -1740,17 +1737,17 @@
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>13</v>
@@ -1769,7 +1766,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>22</v>
@@ -1788,7 +1785,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>28</v>
@@ -1843,7 +1840,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>50</v>
@@ -1852,20 +1849,20 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1">
         <v>7</v>
@@ -1874,17 +1871,17 @@
         <v>27</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
@@ -1893,17 +1890,17 @@
         <v>24</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1912,17 +1909,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1931,17 +1928,17 @@
         <v>36</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -1950,17 +1947,17 @@
         <v>33</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1969,17 +1966,17 @@
         <v>53</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1988,7 +1985,7 @@
         <v>48</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -1998,7 +1995,7 @@
         <v>47</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2007,12 +2004,12 @@
         <v>21</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>55</v>
@@ -2032,7 +2029,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2041,7 +2038,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2058,7 +2055,7 @@
         <v>19</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -2075,7 +2072,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2083,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -2113,30 +2110,30 @@
     <hyperlink ref="E23" r:id="rId4" xr:uid="{0C154578-CACA-4BBA-95A2-6BC7B349F734}"/>
     <hyperlink ref="E22" r:id="rId5" xr:uid="{CEC642B8-821A-4FB3-819F-7AE36F50F009}"/>
     <hyperlink ref="E7" r:id="rId6" display="22uF, 0805 " xr:uid="{F83FEE82-BDC4-4749-A0AD-7C138931EBAE}"/>
-    <hyperlink ref="E24" r:id="rId7" xr:uid="{46EB7F69-41B0-4BD1-B990-020850FB8150}"/>
-    <hyperlink ref="E15" r:id="rId8" display="DRV8874.  mouser" xr:uid="{6B760059-D220-4D00-B53A-4A7BF2A0B1FE}"/>
-    <hyperlink ref="E14" r:id="rId9" xr:uid="{BF4FF71A-DBA0-49C4-B4C5-8E838503C33D}"/>
-    <hyperlink ref="E6" r:id="rId10" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{F920BB65-66A9-4D8E-972F-F16A601CD902}"/>
-    <hyperlink ref="E4" r:id="rId11" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{086F398F-F957-4413-9B1E-846AA6EDFE88}"/>
-    <hyperlink ref="E34" r:id="rId12" display="TPS62133 5V" xr:uid="{DFEBCF9B-890F-47F5-B667-6E08AD68E59E}"/>
-    <hyperlink ref="E5" r:id="rId13" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{95DAAF32-0A4F-4478-8001-1D7F97329858}"/>
-    <hyperlink ref="E17" r:id="rId14" xr:uid="{6600A17B-EAC3-45E3-A2CB-5F3376BCA2AF}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{B14FB3A0-2AF7-4BF3-8981-B6124A39B6EC}"/>
-    <hyperlink ref="E25" r:id="rId16" display="10k mouser" xr:uid="{0648B27D-D74F-41C7-A972-856D1F021628}"/>
-    <hyperlink ref="E26" r:id="rId17" display="0R. 250mW, 0805" xr:uid="{E873131F-2EDC-41CC-BD31-48C256E42603}"/>
-    <hyperlink ref="E31" r:id="rId18" display="100k, 250mW, 0805" xr:uid="{3F110D6B-CD50-410E-8133-83F76B773E64}"/>
-    <hyperlink ref="E29" r:id="rId19" display="100R, 250mW, 0805" xr:uid="{96C04619-73AD-4532-8564-AAB3DC023DDA}"/>
-    <hyperlink ref="E27" r:id="rId20" display="15R mouser" xr:uid="{5F0952B8-402D-4D87-8190-F360BD9CAC81}"/>
-    <hyperlink ref="E28" r:id="rId21" display="560R, 500mW, 0805, mouser" xr:uid="{5B952F8C-A114-4DC2-AE8C-AD69694965C0}"/>
-    <hyperlink ref="E3" r:id="rId22" xr:uid="{5DCDF43F-3FBC-40A4-AC6E-8B88FFEA24DC}"/>
-    <hyperlink ref="E12" r:id="rId23" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
-    <hyperlink ref="E10" r:id="rId24" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
-    <hyperlink ref="E11" r:id="rId25" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
-    <hyperlink ref="E30" r:id="rId26" xr:uid="{D4D1F7D7-BE9E-4734-96F3-48B07F1A3520}"/>
-    <hyperlink ref="E2" r:id="rId27" xr:uid="{C629534A-7226-40CF-A252-D4192011C276}"/>
-    <hyperlink ref="E13" r:id="rId28" display="Polyfuse, Itrip: 500mA, 16V" xr:uid="{AAF42F9B-B234-4778-9B95-79056EFCAD9E}"/>
-    <hyperlink ref="E32" r:id="rId29" xr:uid="{10BD4C26-5C0A-4000-AC81-EBA28CAEDF55}"/>
-    <hyperlink ref="E35" r:id="rId30" xr:uid="{6B0012C0-BFF2-4E15-80EC-E66FE1C61D46}"/>
+    <hyperlink ref="E15" r:id="rId7" display="DRV8874.  mouser" xr:uid="{6B760059-D220-4D00-B53A-4A7BF2A0B1FE}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{BF4FF71A-DBA0-49C4-B4C5-8E838503C33D}"/>
+    <hyperlink ref="E6" r:id="rId9" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{F920BB65-66A9-4D8E-972F-F16A601CD902}"/>
+    <hyperlink ref="E4" r:id="rId10" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{086F398F-F957-4413-9B1E-846AA6EDFE88}"/>
+    <hyperlink ref="E34" r:id="rId11" display="TPS62133 5V" xr:uid="{DFEBCF9B-890F-47F5-B667-6E08AD68E59E}"/>
+    <hyperlink ref="E5" r:id="rId12" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{95DAAF32-0A4F-4478-8001-1D7F97329858}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{6600A17B-EAC3-45E3-A2CB-5F3376BCA2AF}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{B14FB3A0-2AF7-4BF3-8981-B6124A39B6EC}"/>
+    <hyperlink ref="E25" r:id="rId15" display="10k mouser" xr:uid="{0648B27D-D74F-41C7-A972-856D1F021628}"/>
+    <hyperlink ref="E26" r:id="rId16" display="0R. 250mW, 0805" xr:uid="{E873131F-2EDC-41CC-BD31-48C256E42603}"/>
+    <hyperlink ref="E31" r:id="rId17" display="100k, 250mW, 0805" xr:uid="{3F110D6B-CD50-410E-8133-83F76B773E64}"/>
+    <hyperlink ref="E29" r:id="rId18" display="100R, 250mW, 0805" xr:uid="{96C04619-73AD-4532-8564-AAB3DC023DDA}"/>
+    <hyperlink ref="E27" r:id="rId19" display="15R mouser" xr:uid="{5F0952B8-402D-4D87-8190-F360BD9CAC81}"/>
+    <hyperlink ref="E28" r:id="rId20" display="560R, 500mW, 0805, mouser" xr:uid="{5B952F8C-A114-4DC2-AE8C-AD69694965C0}"/>
+    <hyperlink ref="E3" r:id="rId21" xr:uid="{5DCDF43F-3FBC-40A4-AC6E-8B88FFEA24DC}"/>
+    <hyperlink ref="E12" r:id="rId22" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{631A8368-CC6E-497A-BA50-9C7465C90281}"/>
+    <hyperlink ref="E10" r:id="rId23" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{50E4AE87-8DC6-4D9C-8956-48E26D8347E9}"/>
+    <hyperlink ref="E11" r:id="rId24" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{EB8941BD-8C79-4349-A76B-A0A9B67E34C1}"/>
+    <hyperlink ref="E30" r:id="rId25" xr:uid="{D4D1F7D7-BE9E-4734-96F3-48B07F1A3520}"/>
+    <hyperlink ref="E2" r:id="rId26" xr:uid="{C629534A-7226-40CF-A252-D4192011C276}"/>
+    <hyperlink ref="E13" r:id="rId27" display="Polyfuse, Itrip: 500mA, 16V" xr:uid="{AAF42F9B-B234-4778-9B95-79056EFCAD9E}"/>
+    <hyperlink ref="E32" r:id="rId28" xr:uid="{10BD4C26-5C0A-4000-AC81-EBA28CAEDF55}"/>
+    <hyperlink ref="E35" r:id="rId29" xr:uid="{6B0012C0-BFF2-4E15-80EC-E66FE1C61D46}"/>
+    <hyperlink ref="E24" r:id="rId30" xr:uid="{592BCDC7-098C-4445-A940-848075A3594A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>

--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AB9689-7EAB-4255-BA4D-46CEDAF64485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A87383-4B3D-446A-A090-332167CBFFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="137">
   <si>
     <t>Designator</t>
   </si>
@@ -429,6 +429,21 @@
   </si>
   <si>
     <t>PMOS VGS 16V</t>
+  </si>
+  <si>
+    <t>&lt;60</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>&gt;60</t>
   </si>
 </sst>
 </file>
@@ -1034,14 +1049,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1421,14 +1436,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.54296875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" style="11" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1"/>
@@ -1464,10 +1479,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C2" s="1">
@@ -1481,16 +1496,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1498,16 +1513,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1515,50 +1530,56 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="F5" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>67</v>
       </c>
+      <c r="F6" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1566,34 +1587,37 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>110</v>
       </c>
       <c r="F9" s="9"/>
@@ -1606,7 +1630,9 @@
       <c r="E10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="12">
+        <v>6</v>
+      </c>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1616,8 +1642,9 @@
       <c r="E11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="12">
+        <v>4</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
@@ -1628,190 +1655,209 @@
       <c r="E12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -1820,16 +1866,16 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -1839,16 +1885,16 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -1858,35 +1904,37 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="1">
         <v>7</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1896,92 +1944,98 @@
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1991,16 +2045,16 @@
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -2008,16 +2062,16 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -2025,16 +2079,16 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -2042,50 +2096,56 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>130</v>
       </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="F36" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -2096,7 +2156,7 @@
       <c r="I38" s="7"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="12"/>
+      <c r="A76" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
@@ -2134,8 +2194,12 @@
     <hyperlink ref="E32" r:id="rId28" xr:uid="{10BD4C26-5C0A-4000-AC81-EBA28CAEDF55}"/>
     <hyperlink ref="E35" r:id="rId29" xr:uid="{6B0012C0-BFF2-4E15-80EC-E66FE1C61D46}"/>
     <hyperlink ref="E24" r:id="rId30" xr:uid="{592BCDC7-098C-4445-A940-848075A3594A}"/>
+    <hyperlink ref="E19" r:id="rId31" xr:uid="{6CC1CC41-DC3C-42CD-B724-27DFA46707BE}"/>
+    <hyperlink ref="E20" r:id="rId32" xr:uid="{2E73A789-DB14-4BC7-8DF5-3B81033652F7}"/>
+    <hyperlink ref="E21" r:id="rId33" xr:uid="{20682C26-57E3-4CA9-B34A-3FF9CB5ACA3A}"/>
+    <hyperlink ref="E18" r:id="rId34" xr:uid="{87E4D277-5F7D-48B8-BF25-062DDA3C092A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A87383-4B3D-446A-A090-332167CBFFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B7C19-B767-43AD-9DA6-065078F372BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
   <si>
     <t>Designator</t>
   </si>
@@ -444,6 +444,18 @@
   </si>
   <si>
     <t>&gt;60</t>
+  </si>
+  <si>
+    <t>MolexPicoblade, 4pin, Female</t>
+  </si>
+  <si>
+    <t>MolexPicoblade Crimp chain</t>
+  </si>
+  <si>
+    <t>MolexPicoblade, 6pin Female</t>
+  </si>
+  <si>
+    <t>MolexPicoblade, 3pin, Female</t>
   </si>
 </sst>
 </file>
@@ -1436,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="129" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2153,7 +2165,37 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C40" s="1">
+        <v>6</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C41" s="1">
+        <v>100</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="11"/>
@@ -2198,8 +2240,12 @@
     <hyperlink ref="E20" r:id="rId32" xr:uid="{2E73A789-DB14-4BC7-8DF5-3B81033652F7}"/>
     <hyperlink ref="E21" r:id="rId33" xr:uid="{20682C26-57E3-4CA9-B34A-3FF9CB5ACA3A}"/>
     <hyperlink ref="E18" r:id="rId34" xr:uid="{87E4D277-5F7D-48B8-BF25-062DDA3C092A}"/>
+    <hyperlink ref="E39" r:id="rId35" display="MolexPicoblade" xr:uid="{9FF8AC64-D4D2-4C43-9BAE-8E934B00AE72}"/>
+    <hyperlink ref="E41" r:id="rId36" xr:uid="{BEACA9FA-A9C2-4B94-BC43-CAE2E09EC1A5}"/>
+    <hyperlink ref="E40" r:id="rId37" xr:uid="{9577CE5E-E128-4CA9-BCD4-491BC3088985}"/>
+    <hyperlink ref="E38" r:id="rId38" xr:uid="{FDB153C0-BA6A-4EC2-8E99-5E647E3F0DE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B7C19-B767-43AD-9DA6-065078F372BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FDBE8-6F2F-4CA2-858C-6DE8C1B6F228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="142">
   <si>
     <t>Designator</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>MolexPicoblade, 3pin, Female</t>
+  </si>
+  <si>
+    <t>LM1084 5V LDO Reg</t>
   </si>
 </sst>
 </file>
@@ -1448,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="129" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2195,6 +2198,11 @@
       </c>
       <c r="E41" s="7" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E42" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
@@ -2244,8 +2252,9 @@
     <hyperlink ref="E41" r:id="rId36" xr:uid="{BEACA9FA-A9C2-4B94-BC43-CAE2E09EC1A5}"/>
     <hyperlink ref="E40" r:id="rId37" xr:uid="{9577CE5E-E128-4CA9-BCD4-491BC3088985}"/>
     <hyperlink ref="E38" r:id="rId38" xr:uid="{FDB153C0-BA6A-4EC2-8E99-5E647E3F0DE5}"/>
+    <hyperlink ref="E42" r:id="rId39" xr:uid="{BEE6CC19-CA5D-449B-A99F-7D707CA463B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FDBE8-6F2F-4CA2-858C-6DE8C1B6F228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD5E012-F036-42F0-8B4C-4660927EDD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="152">
   <si>
     <t>Designator</t>
   </si>
@@ -459,13 +459,43 @@
   </si>
   <si>
     <t>LM1084 5V LDO Reg</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>NCP1117</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SD-Card</t>
+  </si>
+  <si>
+    <t>640-USB4105-GF-A-060</t>
+  </si>
+  <si>
+    <t>653-B3U-1000P</t>
+  </si>
+  <si>
+    <t>595-TPS62133RGTR</t>
+  </si>
+  <si>
+    <t>863-NCP1117ST33T3G</t>
+  </si>
+  <si>
+    <t>640-MEM20670218000A</t>
+  </si>
+  <si>
+    <t>576-0805L020/16YR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +670,12 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1035,7 +1071,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,6 +1109,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1105,8 +1142,8 @@
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Poznámka" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Propojená buňka" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Špatně" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Správně" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Špatně" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Text upozornění" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Vstup" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Výpočet" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1451,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F51" sqref="F46:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1600,6 +1637,9 @@
       <c r="E7" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
@@ -2203,6 +2243,54 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E42" s="7" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E46" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E50" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
@@ -2253,8 +2341,14 @@
     <hyperlink ref="E40" r:id="rId37" xr:uid="{9577CE5E-E128-4CA9-BCD4-491BC3088985}"/>
     <hyperlink ref="E38" r:id="rId38" xr:uid="{FDB153C0-BA6A-4EC2-8E99-5E647E3F0DE5}"/>
     <hyperlink ref="E42" r:id="rId39" xr:uid="{BEE6CC19-CA5D-449B-A99F-7D707CA463B6}"/>
+    <hyperlink ref="E46" r:id="rId40" xr:uid="{2EC87F8A-1925-41F2-982A-899CC858B16C}"/>
+    <hyperlink ref="E47" r:id="rId41" xr:uid="{2F449279-555A-4506-BF84-AE6E9D8B12C8}"/>
+    <hyperlink ref="E48" r:id="rId42" display="TPS62133 5V" xr:uid="{C0032976-7805-426B-9A6C-5BEA64E36936}"/>
+    <hyperlink ref="E49" r:id="rId43" xr:uid="{9D285C45-FFA7-450A-99A9-8EEA23961019}"/>
+    <hyperlink ref="E50" r:id="rId44" xr:uid="{C305890A-86B2-43D8-BB7D-1085887AE637}"/>
+    <hyperlink ref="E51" r:id="rId45" display="Polyfuse, Itrip: 500mA, 16V" xr:uid="{9E1C68D7-3F24-4BB8-9B73-4BC53261F75F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD5E012-F036-42F0-8B4C-4660927EDD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F64905-20AC-47B3-9376-298AC0807CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="F46:F51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
+++ b/-PCB-/SUMEC_MK_IV/bom/MK_IV bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-PCB-\SUMEC_MK_IV\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F64905-20AC-47B3-9376-298AC0807CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9842C37B-DA70-47D7-A755-5D5A05DCDF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
